--- a/data/NQBP zooplankton 2021-02-15.xlsx
+++ b/data/NQBP zooplankton 2021-02-15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhumita Kabade\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mesozooplankton and water quality comparisons-project\plankton and waterqualiity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD63363-CC2F-4687-A4DE-6BE620C71B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4A9CC-6D59-454B-A105-882CD4380FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2F984FF-C0E7-439C-ACB7-FD5B9357A0BC}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="51930" windowHeight="21210" xr2:uid="{A2F984FF-C0E7-439C-ACB7-FD5B9357A0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -2149,7 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DD4631-71C5-4EFD-865F-A31EB26D3208}">
   <dimension ref="A1:L1517"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="108" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
